--- a/data/second_stage/df_to_rev_coder4.xlsx
+++ b/data/second_stage/df_to_rev_coder4.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://univmurcia-my.sharepoint.com/personal/ruben_lopez15_um_es/Documents/FPU2018/Tesis/Drafts/Paper 2/Project/data/second_stage/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://univmurcia-my.sharepoint.com/personal/rlopez_um_es/Documents/FPU2018/meta-analyses_reproducibility/data/second_stage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="11_B892CDEF7209797A9562848806495AF654E3B3B0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E69C9B6-4F52-4FE8-B61F-728438AA0761}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{5C534021-E726-4398-BC85-FA9CC672E3FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{854C0F49-28E4-4183-8475-E5A234964CF1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" refMode="R1C1" iterateCount="0" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="140">
   <si>
     <t>order</t>
   </si>
@@ -426,6 +426,24 @@
   </si>
   <si>
     <t>request_information</t>
+  </si>
+  <si>
+    <t>ma_x</t>
+  </si>
+  <si>
+    <t>reason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Original results extracted from a subgroup analysis. Results match using a pooled between-studies variance estimation instead of a separate one. </t>
+  </si>
+  <si>
+    <t>Reproduced values rounded to two decimal places match with the original results (reported rounded to two decimal places).</t>
+  </si>
+  <si>
+    <t>The results match if the sign of the upper confidence interval is reversed. It was considered a minor reporting error.</t>
+  </si>
+  <si>
+    <t>No clear reason was found. Labelled as numerical error due to discrepancy in upper confidence limit. This difference (0.017) was considered not relevant.</t>
   </si>
 </sst>
 </file>
@@ -768,15 +786,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AY8"/>
+  <dimension ref="A1:BA8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="AX8" sqref="AX8"/>
+    <sheetView tabSelected="1" topLeftCell="AM1" workbookViewId="0">
+      <selection activeCell="BA8" sqref="BA8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -874,64 +892,70 @@
         <v>31</v>
       </c>
       <c r="AG1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>120</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>121</v>
       </c>
+      <c r="BA1" t="s">
+        <v>135</v>
+      </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>16</v>
       </c>
@@ -1003,64 +1027,67 @@
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
       <c r="AG2">
+        <v>47</v>
+      </c>
+      <c r="AH2">
         <v>0.21</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>10</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>7.8E-2</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>-3.2000000000000001E-2</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>0.188</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>0.22</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>1.393</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>54.845999999999997</v>
       </c>
-      <c r="AO2">
+      <c r="AP2">
         <v>83.59</v>
       </c>
-      <c r="AP2">
+      <c r="AQ2">
         <v>0</v>
       </c>
-      <c r="AQ2">
+      <c r="AR2">
         <v>121.666666666667</v>
       </c>
-      <c r="AR2">
+      <c r="AS2">
         <v>-4.7619047619047699</v>
       </c>
-      <c r="AS2">
+      <c r="AT2">
         <v>-82.96</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AU2" t="s">
         <v>62</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AV2" t="s">
         <v>63</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>64</v>
       </c>
       <c r="AW2" t="s">
         <v>64</v>
       </c>
       <c r="AX2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AY2" t="s">
         <v>122</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="AZ2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>28</v>
       </c>
@@ -1132,61 +1159,64 @@
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
       <c r="AG3">
+        <v>82</v>
+      </c>
+      <c r="AH3">
         <v>0.17299999999999999</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>12</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>0.51600000000000001</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>0.43</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>0.60299999999999998</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>0.17299999999999999</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>11.699</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>68.143000000000001</v>
       </c>
-      <c r="AO3">
+      <c r="AP3">
         <v>83.856999999999999</v>
       </c>
-      <c r="AP3">
+      <c r="AQ3">
         <v>0</v>
       </c>
-      <c r="AQ3">
+      <c r="AR3">
         <v>-6.6115702479338898</v>
       </c>
-      <c r="AR3">
+      <c r="AS3">
         <v>0</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>62</v>
       </c>
       <c r="AU3" t="s">
         <v>62</v>
       </c>
       <c r="AV3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW3" t="s">
         <v>64</v>
       </c>
-      <c r="AW3" t="s">
+      <c r="AX3" t="s">
         <v>76</v>
       </c>
-      <c r="AX3" t="s">
+      <c r="AY3" t="s">
         <v>128</v>
       </c>
-      <c r="AY3" t="s">
+      <c r="AZ3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>30</v>
       </c>
@@ -1261,64 +1291,70 @@
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
       <c r="AG4">
+        <v>84</v>
+      </c>
+      <c r="AH4">
         <v>0.22</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>21</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>0.32500000000000001</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>0.20200000000000001</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>0.44700000000000001</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>0.245</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>5.1970000000000001</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>19</v>
       </c>
-      <c r="AO4">
+      <c r="AP4">
         <v>12.343999999999999</v>
       </c>
-      <c r="AP4">
+      <c r="AQ4">
         <v>0</v>
       </c>
-      <c r="AQ4">
+      <c r="AR4">
         <v>-1.5625</v>
       </c>
-      <c r="AR4">
+      <c r="AS4">
         <v>-11.363636363636401</v>
       </c>
-      <c r="AS4">
+      <c r="AT4">
         <v>51.436</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>62</v>
       </c>
       <c r="AU4" t="s">
         <v>62</v>
       </c>
       <c r="AV4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW4" t="s">
         <v>64</v>
       </c>
-      <c r="AW4" t="s">
+      <c r="AX4" t="s">
         <v>76</v>
       </c>
-      <c r="AX4" t="s">
+      <c r="AY4" t="s">
         <v>130</v>
       </c>
-      <c r="AY4" t="s">
+      <c r="AZ4" t="s">
         <v>129</v>
       </c>
+      <c r="BA4" t="s">
+        <v>139</v>
+      </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>37</v>
       </c>
@@ -1390,61 +1426,67 @@
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
       <c r="AG5">
+        <v>96</v>
+      </c>
+      <c r="AH5">
         <v>0.81399999999999995</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>11</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>1.7769999999999999</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>1.212</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>2.343</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>1.1299999999999999</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>6.1639999999999997</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>60.109000000000002</v>
       </c>
-      <c r="AO5">
+      <c r="AP5">
         <v>83.364000000000004</v>
       </c>
-      <c r="AP5">
+      <c r="AQ5">
         <v>0</v>
       </c>
-      <c r="AQ5">
+      <c r="AR5">
         <v>-3.07424593967517</v>
       </c>
-      <c r="AR5">
+      <c r="AS5">
         <v>-38.820638820638798</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>62</v>
       </c>
       <c r="AU5" t="s">
         <v>62</v>
       </c>
       <c r="AV5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW5" t="s">
         <v>64</v>
       </c>
-      <c r="AW5" t="s">
+      <c r="AX5" t="s">
         <v>76</v>
       </c>
-      <c r="AX5" t="s">
+      <c r="AY5" t="s">
         <v>127</v>
       </c>
-      <c r="AY5" t="s">
+      <c r="AZ5" t="s">
         <v>124</v>
       </c>
+      <c r="BA5" t="s">
+        <v>136</v>
+      </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>38</v>
       </c>
@@ -1525,64 +1567,67 @@
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
       <c r="AG6">
+        <v>97</v>
+      </c>
+      <c r="AH6">
         <v>0.52800000000000002</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>20</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>0.52500000000000002</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>0.30199999999999999</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>0.748</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>0.44600000000000001</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>4.62</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>38.435000000000002</v>
       </c>
-      <c r="AO6">
+      <c r="AP6">
         <v>50.566000000000003</v>
       </c>
-      <c r="AP6">
+      <c r="AQ6">
         <v>-3</v>
       </c>
-      <c r="AQ6">
+      <c r="AR6">
         <v>7.2438162544169504</v>
       </c>
-      <c r="AR6">
+      <c r="AS6">
         <v>15.530303030302999</v>
       </c>
-      <c r="AS6">
+      <c r="AT6">
         <v>6.0339999999999998</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>62</v>
       </c>
       <c r="AU6" t="s">
         <v>62</v>
       </c>
       <c r="AV6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW6" t="s">
         <v>64</v>
       </c>
-      <c r="AW6" t="s">
+      <c r="AX6" t="s">
         <v>76</v>
       </c>
-      <c r="AX6" t="s">
+      <c r="AY6" t="s">
         <v>131</v>
       </c>
-      <c r="AY6" t="s">
+      <c r="AZ6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>83</v>
       </c>
@@ -1657,64 +1702,70 @@
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
       <c r="AG7">
+        <v>182</v>
+      </c>
+      <c r="AH7">
         <v>0.35</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>13</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>-0.14099999999999999</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>0.21099999999999999</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>0.35199999999999998</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>0.39200000000000002</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>19.936</v>
       </c>
-      <c r="AO7">
+      <c r="AP7">
         <v>39.805999999999997</v>
       </c>
-      <c r="AP7">
+      <c r="AQ7">
         <v>0</v>
       </c>
-      <c r="AQ7">
+      <c r="AR7">
         <v>12.5</v>
       </c>
-      <c r="AR7">
+      <c r="AS7">
         <v>-0.57142857142857195</v>
       </c>
-      <c r="AS7">
+      <c r="AT7">
         <v>4.0000000000048903E-3</v>
-      </c>
-      <c r="AT7" t="s">
-        <v>63</v>
       </c>
       <c r="AU7" t="s">
         <v>63</v>
       </c>
       <c r="AV7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AW7" t="s">
         <v>64</v>
       </c>
-      <c r="AW7" t="s">
+      <c r="AX7" t="s">
         <v>76</v>
       </c>
-      <c r="AX7" t="s">
+      <c r="AY7" t="s">
         <v>123</v>
       </c>
-      <c r="AY7" t="s">
+      <c r="AZ7" t="s">
         <v>124</v>
       </c>
+      <c r="BA7" t="s">
+        <v>137</v>
+      </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>87</v>
       </c>
@@ -1789,61 +1840,67 @@
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
       <c r="AG8">
+        <v>190</v>
+      </c>
+      <c r="AH8">
         <v>0.69</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>12</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>-0.34699999999999998</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>-0.79600000000000004</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>0.10100000000000001</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>0.89700000000000002</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>-1.7050000000000001</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>595.74</v>
       </c>
-      <c r="AO8">
+      <c r="AP8">
         <v>99.888999999999996</v>
       </c>
-      <c r="AP8">
+      <c r="AQ8">
         <v>0</v>
       </c>
-      <c r="AQ8">
+      <c r="AR8">
         <v>0.85714285714285798</v>
       </c>
-      <c r="AR8">
+      <c r="AS8">
         <v>-30</v>
       </c>
-      <c r="AS8">
+      <c r="AT8">
         <v>-1.889</v>
       </c>
-      <c r="AT8" t="s">
+      <c r="AU8" t="s">
         <v>62</v>
       </c>
-      <c r="AU8" t="s">
+      <c r="AV8" t="s">
         <v>63</v>
-      </c>
-      <c r="AV8" t="s">
-        <v>64</v>
       </c>
       <c r="AW8" t="s">
         <v>64</v>
       </c>
       <c r="AX8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AY8" t="s">
         <v>125</v>
       </c>
-      <c r="AY8" t="s">
+      <c r="AZ8" t="s">
         <v>124</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
